--- a/DB first.xlsx
+++ b/DB first.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Documents\Atom\Boolean-Esercizi\database\db-first\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32715DE-2D0F-4098-A8E0-A971854B80EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E174B8-56DD-496D-85C5-B216BF59172F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D2C9F6D5-852D-45A9-ACCB-C317671AA190}"/>
   </bookViews>
@@ -24,10 +24,167 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descrizione:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Modellizzare la struttura di una tabella per memorizzare tutti i dati riguardanti delle auto usate messe in vendita da un concessionario.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Attributi</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>PRIMARY</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>ESEMPIO</t>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>transmission</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>doors</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>fuel</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>targa</t>
+  </si>
+  <si>
+    <t>porte</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>carburante</t>
+  </si>
+  <si>
+    <t>cambio</t>
+  </si>
+  <si>
+    <t>anno</t>
+  </si>
+  <si>
+    <t>modello</t>
+  </si>
+  <si>
+    <t>marca</t>
+  </si>
+  <si>
+    <t>SEAT</t>
+  </si>
+  <si>
+    <t>MARBELLA</t>
+  </si>
+  <si>
+    <t>MANUAL</t>
+  </si>
+  <si>
+    <t>HATCHBACK</t>
+  </si>
+  <si>
+    <t>PETROL</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>AA000AB</t>
+  </si>
+  <si>
+    <t>SMALL</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>cilindrata (cc)</t>
+  </si>
+  <si>
+    <t>prezzo (€)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -43,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -51,12 +208,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -439,12 +679,588 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC7559A-9676-41EE-9A64-9FDA9218390C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1987</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2">
+        <v>41</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="8">
+        <v>5600</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K3:P9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DB first.xlsx
+++ b/DB first.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Documents\Atom\Boolean-Esercizi\database\db-first\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E174B8-56DD-496D-85C5-B216BF59172F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFD2637-317C-4FEA-AB55-480E7514256A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D2C9F6D5-852D-45A9-ACCB-C317671AA190}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <r>
       <rPr>
@@ -72,9 +72,6 @@
     <t>NOT NULL</t>
   </si>
   <si>
-    <t>PRIMARY</t>
-  </si>
-  <si>
     <t>brand</t>
   </si>
   <si>
@@ -150,16 +147,70 @@
     <t>AA000AB</t>
   </si>
   <si>
-    <t>SMALL</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
     <t>cilindrata (cc)</t>
   </si>
   <si>
     <t>prezzo (€)</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>motore</t>
+  </si>
+  <si>
+    <t>gear</t>
+  </si>
+  <si>
+    <t>NULL, DEFAULT('4 CILINDRI')</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>4 CILINDRI</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>seats</t>
+  </si>
+  <si>
+    <t>posti</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>colore</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>epoca</t>
+  </si>
+  <si>
+    <t>vintage</t>
+  </si>
+  <si>
+    <t>FLOAT(9, 2)</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>NULL, DEFAULT(0)</t>
   </si>
 </sst>
 </file>
@@ -679,19 +730,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC7559A-9676-41EE-9A64-9FDA9218390C}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" style="3" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="3"/>
   </cols>
@@ -784,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -809,7 +860,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -828,19 +879,19 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -856,19 +907,19 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -884,16 +935,16 @@
       <c r="A9" s="7"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2">
         <v>1987</v>
@@ -911,18 +962,20 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="2">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -932,23 +985,25 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -964,17 +1019,19 @@
       <c r="A12" s="7"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="2">
+        <v>41</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -990,17 +1047,19 @@
       <c r="A13" s="7"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1010,7 +1069,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="9"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
@@ -1019,14 +1078,16 @@
         <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="2">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -1045,16 +1106,16 @@
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>33</v>
+      <c r="G15" s="2">
+        <v>5</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -1068,21 +1129,21 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="8">
-        <v>5600</v>
+      <c r="G16" s="1">
+        <v>4</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1097,11 +1158,21 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="8"/>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1115,11 +1186,21 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="8"/>
+      <c r="C18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="8">
+        <v>5600</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1133,10 +1214,18 @@
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -1151,10 +1240,18 @@
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -1169,11 +1266,21 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
+      <c r="C21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -1220,42 +1327,6 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K3:P9"/>
